--- a/DM Solution Documentation/Coffee Merchant Solution Workbook.xlsx
+++ b/DM Solution Documentation/Coffee Merchant Solution Workbook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Coffee Merchant DM Solution\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Coffee Merchant DM Solution\GitHub\DM Solution Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB563607-2A65-4C3D-8A21-9A8E199E5CFA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C63A3F4-6CA3-42D7-A1D5-52711DD626F7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5340" tabRatio="950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5340" tabRatio="950" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Members" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="150">
   <si>
     <t>Team Member</t>
   </si>
@@ -469,6 +469,9 @@
   </si>
   <si>
     <t>Revenue, Commission, Number of Orders, Actual Price, Order Quantity, Discount</t>
+  </si>
+  <si>
+    <t>daoifjeaoifjiasofj</t>
   </si>
 </sst>
 </file>
@@ -1152,6 +1155,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1167,9 +1172,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1180,9 +1186,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1554,7 +1557,7 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2487,10 +2490,10 @@
   <sheetPr>
     <tabColor rgb="FFE2D2BA"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2515,10 +2518,10 @@
       <c r="C2" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="44"/>
+      <c r="E2" s="46"/>
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
@@ -2533,33 +2536,33 @@
     </row>
     <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="41"/>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="41"/>
     </row>
     <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="48"/>
-      <c r="B5" s="49" t="s">
+      <c r="A5" s="43"/>
+      <c r="B5" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="G5" s="48"/>
+      <c r="G5" s="43"/>
     </row>
     <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="41"/>
@@ -2693,17 +2696,17 @@
       <c r="B15" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="51" t="s">
+      <c r="C15" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54"/>
       <c r="F15" s="41"/>
       <c r="G15" s="41"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
-      <c r="B16" s="54"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="55"/>
       <c r="D16" s="56"/>
       <c r="E16" s="57"/>
@@ -2712,7 +2715,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="41"/>
-      <c r="B17" s="54"/>
+      <c r="B17" s="51"/>
       <c r="C17" s="55"/>
       <c r="D17" s="56"/>
       <c r="E17" s="57"/>
@@ -2721,7 +2724,7 @@
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="41"/>
-      <c r="B18" s="54"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="58"/>
       <c r="D18" s="59"/>
       <c r="E18" s="60"/>
@@ -2736,6 +2739,11 @@
       <c r="E19" s="41"/>
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>149</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/DM Solution Documentation/Coffee Merchant Solution Workbook.xlsx
+++ b/DM Solution Documentation/Coffee Merchant Solution Workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Coffee Merchant DM Solution\GitHub\DM Solution Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C63A3F4-6CA3-42D7-A1D5-52711DD626F7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198EE939-FF81-4FF3-A02F-4B263C8F8F51}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5340" tabRatio="950" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="149">
   <si>
     <t>Team Member</t>
   </si>
@@ -469,9 +469,6 @@
   </si>
   <si>
     <t>Revenue, Commission, Number of Orders, Actual Price, Order Quantity, Discount</t>
-  </si>
-  <si>
-    <t>daoifjeaoifjiasofj</t>
   </si>
 </sst>
 </file>
@@ -2493,7 +2490,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2741,8 +2738,8 @@
       <c r="G19" s="41"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
-        <v>149</v>
+      <c r="C22">
+        <v>1245</v>
       </c>
     </row>
   </sheetData>

--- a/DM Solution Documentation/Coffee Merchant Solution Workbook.xlsx
+++ b/DM Solution Documentation/Coffee Merchant Solution Workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Coffee Merchant DM Solution\GitHub\DM Solution Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198EE939-FF81-4FF3-A02F-4B263C8F8F51}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E0A963-3FD6-434D-89DD-CEBF5F166EFC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5340" tabRatio="950" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5340" tabRatio="950" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Members" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="140">
   <si>
     <t>Team Member</t>
   </si>
@@ -123,9 +123,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>DWCoffeeMerchantSales.dbo.OrderKey</t>
-  </si>
-  <si>
     <t>DWCoffeeMerchantSales.dbo.ConsumerKey</t>
   </si>
   <si>
@@ -222,24 +219,12 @@
     <t>CoffeeMerchant.dbo.Inventory.InventoryID</t>
   </si>
   <si>
-    <t>DWCoffeeMerchantSales.dbo.DimOrder</t>
-  </si>
-  <si>
-    <t>CoffeeMerchant.dbo.OrderLine</t>
-  </si>
-  <si>
-    <t>DWCoffeeMerchantSales.dbo.DimOrderKey</t>
-  </si>
-  <si>
     <t>DWCoffeeMerchantSales.dbo.DimOrderID</t>
   </si>
   <si>
     <t>CoffeeMerchant.dbo.Order.OrderID</t>
   </si>
   <si>
-    <t>CoffeeMerchant.dbo.OrderLine.InventoryID</t>
-  </si>
-  <si>
     <t>DWCoffeeMerchantSales.dbo.DimConsumer</t>
   </si>
   <si>
@@ -396,9 +381,6 @@
     <t>Consumer</t>
   </si>
   <si>
-    <t>Order</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -408,9 +390,6 @@
     <t>State</t>
   </si>
   <si>
-    <t>OrderDate</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -423,9 +402,6 @@
     <t>City</t>
   </si>
   <si>
-    <t>ShipDate</t>
-  </si>
-  <si>
     <t>Inventory</t>
   </si>
   <si>
@@ -436,9 +412,6 @@
   </si>
   <si>
     <t>Zipcode</t>
-  </si>
-  <si>
-    <t>CustomerPO</t>
   </si>
   <si>
     <t>Name</t>
@@ -567,7 +540,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -933,34 +906,55 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -975,10 +969,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -990,18 +984,58 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1014,70 +1048,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -1092,7 +1064,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1166,14 +1138,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1187,21 +1156,28 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1635,11 +1611,11 @@
   <sheetPr>
     <tabColor rgb="FF644D2A"/>
   </sheetPr>
-  <dimension ref="A2:E50"/>
+  <dimension ref="A2:E46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1712,10 +1688,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="55" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1728,11 +1704,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="55" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -1749,7 +1725,7 @@
       <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="55" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -1766,98 +1742,98 @@
       <c r="A9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="56" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E9" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="26" t="s">
+      <c r="E11" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="C12" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="C13" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="D13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="B14" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="19" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -1866,12 +1842,12 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="27" t="s">
@@ -1883,13 +1859,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>32</v>
@@ -1900,64 +1876,64 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="D17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="E17" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="E18" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="D19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="E19" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="14" customFormat="1" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="26" t="s">
         <v>64</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>32</v>
@@ -1967,343 +1943,343 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="A21" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="B21" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="C23" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="14" customFormat="1" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="10" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E27" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="22" t="s">
+    <row r="28" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E28" s="17" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>55</v>
+        <v>34</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>82</v>
+        <v>30</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="B31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="8" t="s">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="27" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="17" t="s">
+      <c r="D40" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2311,7 +2287,7 @@
         <v>104</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>31</v>
@@ -2328,7 +2304,7 @@
         <v>105</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>31</v>
@@ -2337,15 +2313,15 @@
         <v>31</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>31</v>
@@ -2354,15 +2330,15 @@
         <v>31</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>31</v>
@@ -2371,7 +2347,7 @@
         <v>31</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2379,7 +2355,7 @@
         <v>109</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>31</v>
@@ -2388,92 +2364,24 @@
         <v>31</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="10" t="s">
+      <c r="B46" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+      <c r="E46" s="13" t="s">
         <v>111</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2487,265 +2395,233 @@
   <sheetPr>
     <tabColor rgb="FFE2D2BA"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.88671875" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="20.88671875" customWidth="1"/>
+    <col min="4" max="5" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="41"/>
       <c r="B1" s="41"/>
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-    </row>
-    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="41"/>
       <c r="B2" s="41"/>
       <c r="C2" s="42" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E2" s="46"/>
       <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="41"/>
       <c r="B3" s="41"/>
       <c r="C3" s="41"/>
       <c r="D3" s="41"/>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="41"/>
       <c r="B4" s="47" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="48"/>
       <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="41"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="41"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="43"/>
       <c r="B5" s="44" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E5" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="F5" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="G5" s="43"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F5" s="43"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="41"/>
       <c r="B6" s="27" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="G6" s="41"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="F6" s="41"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="41"/>
       <c r="B7" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="41"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="F7" s="41"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="41"/>
       <c r="B8" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G8" s="41"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="F8" s="41"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="41"/>
       <c r="B9" s="7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="41"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+      <c r="F9" s="41"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="41"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="41"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F10" s="41"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="41"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="41"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F11" s="41"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="41"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="41"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="41"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="41"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="41"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F13" s="41"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="41"/>
-      <c r="B15" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
+      <c r="B15" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="49"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="57"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="41"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="41"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="54"/>
       <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="41"/>
       <c r="B19" s="41"/>
       <c r="C19" s="41"/>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C22">
-        <v>1245</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B4:E4"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="C15:E18"/>
   </mergeCells>
